--- a/outputs-HGR-r202-archive/p__Bacteroidota.xlsx
+++ b/outputs-HGR-r202-archive/p__Bacteroidota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,10 +447,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>prediction</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -465,12 +470,15 @@
       <c r="B2" t="n">
         <v>940.7100831360158</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C2" t="n">
+        <v>940.7100831360158</v>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -485,12 +493,15 @@
       <c r="B3" t="n">
         <v>1020.107469590683</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C3" t="n">
+        <v>1020.107469590683</v>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -505,12 +516,15 @@
       <c r="B4" t="n">
         <v>512.5996566849851</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C4" t="n">
+        <v>512.5996566849851</v>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -525,12 +539,15 @@
       <c r="B5" t="n">
         <v>1567.407885326539</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1567.407885326539</v>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -545,12 +562,15 @@
       <c r="B6" t="n">
         <v>994.1954215288288</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C6" t="n">
+        <v>994.1954215288288</v>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -565,12 +585,15 @@
       <c r="B7" t="n">
         <v>817.8188740378419</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C7" t="n">
+        <v>817.8188740378419</v>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -585,12 +608,15 @@
       <c r="B8" t="n">
         <v>894.5023493622557</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C8" t="n">
+        <v>894.5023493622557</v>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -605,12 +631,15 @@
       <c r="B9" t="n">
         <v>306.4465908478679</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C9" t="n">
+        <v>306.4465908478679</v>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -625,12 +654,15 @@
       <c r="B10" t="n">
         <v>235.0501249942913</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C10" t="n">
+        <v>235.0501249942913</v>
       </c>
       <c r="D10" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -645,12 +677,15 @@
       <c r="B11" t="n">
         <v>413.5113270968255</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C11" t="n">
+        <v>413.5113270968255</v>
       </c>
       <c r="D11" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -665,12 +700,15 @@
       <c r="B12" t="n">
         <v>751.1947883203125</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C12" t="n">
+        <v>751.1947883203125</v>
       </c>
       <c r="D12" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -685,12 +723,15 @@
       <c r="B13" t="n">
         <v>281.1584828453802</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C13" t="n">
+        <v>281.1584828453802</v>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -705,12 +746,15 @@
       <c r="B14" t="n">
         <v>762.9823943251495</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C14" t="n">
+        <v>762.9823943251495</v>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -725,12 +769,15 @@
       <c r="B15" t="n">
         <v>376.5050537751013</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C15" t="n">
+        <v>376.5050537751013</v>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -745,12 +792,15 @@
       <c r="B16" t="n">
         <v>1480.127857362994</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C16" t="n">
+        <v>1480.127857362994</v>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -765,12 +815,15 @@
       <c r="B17" t="n">
         <v>709.9282597382469</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C17" t="n">
+        <v>709.9282597382469</v>
       </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -785,12 +838,15 @@
       <c r="B18" t="n">
         <v>812.919080192213</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C18" t="n">
+        <v>812.919080192213</v>
       </c>
       <c r="D18" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -805,12 +861,15 @@
       <c r="B19" t="n">
         <v>414.6520297883132</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C19" t="n">
+        <v>414.6520297883132</v>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -825,12 +884,15 @@
       <c r="B20" t="n">
         <v>703.2504974709668</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C20" t="n">
+        <v>703.2504974709668</v>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -845,12 +907,15 @@
       <c r="B21" t="n">
         <v>409.8925769057899</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C21" t="n">
+        <v>409.8925769057899</v>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -865,12 +930,15 @@
       <c r="B22" t="n">
         <v>554.4679894714841</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C22" t="n">
+        <v>554.4679894714841</v>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -885,12 +953,15 @@
       <c r="B23" t="n">
         <v>791.2458105714934</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C23" t="n">
+        <v>791.2458105714934</v>
       </c>
       <c r="D23" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -905,12 +976,15 @@
       <c r="B24" t="n">
         <v>1536.745635460168</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C24" t="n">
+        <v>1536.745635460168</v>
       </c>
       <c r="D24" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -925,12 +999,15 @@
       <c r="B25" t="n">
         <v>1040.065104445093</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C25" t="n">
+        <v>1040.065104445093</v>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -945,12 +1022,15 @@
       <c r="B26" t="n">
         <v>943.7504894824269</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C26" t="n">
+        <v>943.7504894824269</v>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -965,12 +1045,15 @@
       <c r="B27" t="n">
         <v>847.7524251008876</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C27" t="n">
+        <v>847.7524251008876</v>
       </c>
       <c r="D27" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -985,12 +1068,15 @@
       <c r="B28" t="n">
         <v>727.8525588436285</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C28" t="n">
+        <v>727.8525588436285</v>
       </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1005,12 +1091,15 @@
       <c r="B29" t="n">
         <v>1438.845430706572</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C29" t="n">
+        <v>1438.845430706572</v>
       </c>
       <c r="D29" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1025,12 +1114,15 @@
       <c r="B30" t="n">
         <v>1040.684799605526</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C30" t="n">
+        <v>1040.684799605526</v>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1045,12 +1137,15 @@
       <c r="B31" t="n">
         <v>510.5634374387287</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C31" t="n">
+        <v>510.5634374387287</v>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1065,12 +1160,15 @@
       <c r="B32" t="n">
         <v>703.2135394355155</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C32" t="n">
+        <v>703.2135394355155</v>
       </c>
       <c r="D32" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1085,12 +1183,15 @@
       <c r="B33" t="n">
         <v>528.4072859881148</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C33" t="n">
+        <v>528.4072859881148</v>
       </c>
       <c r="D33" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1105,12 +1206,15 @@
       <c r="B34" t="n">
         <v>943.9917871200005</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C34" t="n">
+        <v>943.9917871200005</v>
       </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1125,12 +1229,15 @@
       <c r="B35" t="n">
         <v>1159.622850987418</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C35" t="n">
+        <v>1159.622850987418</v>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1145,12 +1252,15 @@
       <c r="B36" t="n">
         <v>683.1192017213161</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C36" t="n">
+        <v>683.1192017213161</v>
       </c>
       <c r="D36" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1165,12 +1275,15 @@
       <c r="B37" t="n">
         <v>804.4218519558467</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C37" t="n">
+        <v>804.4218519558467</v>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1185,12 +1298,15 @@
       <c r="B38" t="n">
         <v>801.9684302265578</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C38" t="n">
+        <v>801.9684302265578</v>
       </c>
       <c r="D38" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1205,12 +1321,15 @@
       <c r="B39" t="n">
         <v>975.8609936856376</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C39" t="n">
+        <v>975.8609936856376</v>
       </c>
       <c r="D39" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1225,12 +1344,15 @@
       <c r="B40" t="n">
         <v>966.2354659488876</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C40" t="n">
+        <v>966.2354659488876</v>
       </c>
       <c r="D40" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1245,12 +1367,15 @@
       <c r="B41" t="n">
         <v>1273.274295176325</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C41" t="n">
+        <v>1273.274295176325</v>
       </c>
       <c r="D41" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1265,12 +1390,15 @@
       <c r="B42" t="n">
         <v>986.3592512341845</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C42" t="n">
+        <v>986.3592512341845</v>
       </c>
       <c r="D42" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1285,12 +1413,15 @@
       <c r="B43" t="n">
         <v>1065.173258256468</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C43" t="n">
+        <v>1065.173258256468</v>
       </c>
       <c r="D43" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1305,12 +1436,15 @@
       <c r="B44" t="n">
         <v>960.5298585515432</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C44" t="n">
+        <v>960.5298585515432</v>
       </c>
       <c r="D44" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1325,12 +1459,15 @@
       <c r="B45" t="n">
         <v>983.3231619900714</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C45" t="n">
+        <v>983.3231619900714</v>
       </c>
       <c r="D45" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1345,12 +1482,15 @@
       <c r="B46" t="n">
         <v>1100.906399694476</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C46" t="n">
+        <v>1100.906399694476</v>
       </c>
       <c r="D46" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1365,12 +1505,15 @@
       <c r="B47" t="n">
         <v>1097.836294143649</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C47" t="n">
+        <v>1097.836294143649</v>
       </c>
       <c r="D47" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1385,12 +1528,15 @@
       <c r="B48" t="n">
         <v>1162.718976625409</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C48" t="n">
+        <v>1162.718976625409</v>
       </c>
       <c r="D48" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1405,12 +1551,15 @@
       <c r="B49" t="n">
         <v>1299.494271152814</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C49" t="n">
+        <v>1299.494271152814</v>
       </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1425,12 +1574,15 @@
       <c r="B50" t="n">
         <v>1528.737416699355</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C50" t="n">
+        <v>1528.737416699355</v>
       </c>
       <c r="D50" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1445,12 +1597,15 @@
       <c r="B51" t="n">
         <v>1247.810454918847</v>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C51" t="n">
+        <v>1247.810454918847</v>
       </c>
       <c r="D51" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1465,12 +1620,15 @@
       <c r="B52" t="n">
         <v>932.5026656644845</v>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C52" t="n">
+        <v>932.5026656644845</v>
       </c>
       <c r="D52" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1485,12 +1643,15 @@
       <c r="B53" t="n">
         <v>1074.430325470899</v>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C53" t="n">
+        <v>1074.430325470899</v>
       </c>
       <c r="D53" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1505,12 +1666,15 @@
       <c r="B54" t="n">
         <v>964.0437451343446</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C54" t="n">
+        <v>964.0437451343446</v>
       </c>
       <c r="D54" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1525,12 +1689,15 @@
       <c r="B55" t="n">
         <v>838.7113026238039</v>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C55" t="n">
+        <v>838.7113026238039</v>
       </c>
       <c r="D55" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1545,12 +1712,15 @@
       <c r="B56" t="n">
         <v>472.1056098220498</v>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C56" t="n">
+        <v>472.1056098220498</v>
       </c>
       <c r="D56" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1565,12 +1735,15 @@
       <c r="B57" t="n">
         <v>884.5277914657624</v>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C57" t="n">
+        <v>884.5277914657624</v>
       </c>
       <c r="D57" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1585,12 +1758,15 @@
       <c r="B58" t="n">
         <v>674.7732349690893</v>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C58" t="n">
+        <v>674.7732349690893</v>
       </c>
       <c r="D58" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1605,12 +1781,15 @@
       <c r="B59" t="n">
         <v>953.2418698203223</v>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C59" t="n">
+        <v>953.2418698203223</v>
       </c>
       <c r="D59" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1625,12 +1804,15 @@
       <c r="B60" t="n">
         <v>398.6874020682699</v>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C60" t="n">
+        <v>398.6874020682699</v>
       </c>
       <c r="D60" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1645,12 +1827,15 @@
       <c r="B61" t="n">
         <v>822.5922229406201</v>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C61" t="n">
+        <v>822.5922229406201</v>
       </c>
       <c r="D61" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1665,12 +1850,15 @@
       <c r="B62" t="n">
         <v>1146.525301878137</v>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C62" t="n">
+        <v>1146.525301878137</v>
       </c>
       <c r="D62" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1685,12 +1873,15 @@
       <c r="B63" t="n">
         <v>941.6365899078478</v>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C63" t="n">
+        <v>941.6365899078478</v>
       </c>
       <c r="D63" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1705,12 +1896,15 @@
       <c r="B64" t="n">
         <v>570.1712041306332</v>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C64" t="n">
+        <v>570.1712041306332</v>
       </c>
       <c r="D64" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1725,12 +1919,15 @@
       <c r="B65" t="n">
         <v>204.7359142760488</v>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C65" t="n">
+        <v>204.7359142760488</v>
       </c>
       <c r="D65" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1745,12 +1942,15 @@
       <c r="B66" t="n">
         <v>394.0529523265101</v>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C66" t="n">
+        <v>394.0529523265101</v>
       </c>
       <c r="D66" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1765,12 +1965,15 @@
       <c r="B67" t="n">
         <v>1626.196616467559</v>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C67" t="n">
+        <v>1626.196616467559</v>
       </c>
       <c r="D67" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1785,12 +1988,15 @@
       <c r="B68" t="n">
         <v>1666.507939092557</v>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C68" t="n">
+        <v>1666.507939092557</v>
       </c>
       <c r="D68" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1805,12 +2011,15 @@
       <c r="B69" t="n">
         <v>676.6050143876801</v>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C69" t="n">
+        <v>676.6050143876801</v>
       </c>
       <c r="D69" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1825,12 +2034,15 @@
       <c r="B70" t="n">
         <v>824.9386187972268</v>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C70" t="n">
+        <v>824.9386187972268</v>
       </c>
       <c r="D70" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1845,12 +2057,15 @@
       <c r="B71" t="n">
         <v>524.4676541328683</v>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C71" t="n">
+        <v>524.4676541328683</v>
       </c>
       <c r="D71" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1865,12 +2080,15 @@
       <c r="B72" t="n">
         <v>605.229223772729</v>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C72" t="n">
+        <v>605.229223772729</v>
       </c>
       <c r="D72" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1885,12 +2103,15 @@
       <c r="B73" t="n">
         <v>1061.784742096813</v>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C73" t="n">
+        <v>1061.784742096813</v>
       </c>
       <c r="D73" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1905,12 +2126,15 @@
       <c r="B74" t="n">
         <v>628.3497207843677</v>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C74" t="n">
+        <v>628.3497207843677</v>
       </c>
       <c r="D74" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1925,12 +2149,15 @@
       <c r="B75" t="n">
         <v>687.3740865151276</v>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C75" t="n">
+        <v>687.3740865151276</v>
       </c>
       <c r="D75" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1945,12 +2172,15 @@
       <c r="B76" t="n">
         <v>911.5175541531694</v>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C76" t="n">
+        <v>911.5175541531694</v>
       </c>
       <c r="D76" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1965,12 +2195,15 @@
       <c r="B77" t="n">
         <v>902.4293359212779</v>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C77" t="n">
+        <v>902.4293359212779</v>
       </c>
       <c r="D77" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -1985,12 +2218,15 @@
       <c r="B78" t="n">
         <v>1570.72645014213</v>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C78" t="n">
+        <v>1570.72645014213</v>
       </c>
       <c r="D78" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2005,12 +2241,15 @@
       <c r="B79" t="n">
         <v>873.8170383060599</v>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C79" t="n">
+        <v>873.8170383060599</v>
       </c>
       <c r="D79" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2025,12 +2264,15 @@
       <c r="B80" t="n">
         <v>991.140195591478</v>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C80" t="n">
+        <v>991.140195591478</v>
       </c>
       <c r="D80" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2045,12 +2287,15 @@
       <c r="B81" t="n">
         <v>1014.487903238396</v>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C81" t="n">
+        <v>1014.487903238396</v>
       </c>
       <c r="D81" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2065,12 +2310,15 @@
       <c r="B82" t="n">
         <v>436.4455665989649</v>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C82" t="n">
+        <v>436.4455665989649</v>
       </c>
       <c r="D82" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2085,12 +2333,15 @@
       <c r="B83" t="n">
         <v>653.2802187863874</v>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C83" t="n">
+        <v>653.2802187863874</v>
       </c>
       <c r="D83" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2105,12 +2356,15 @@
       <c r="B84" t="n">
         <v>701.6488899691005</v>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C84" t="n">
+        <v>701.6488899691005</v>
       </c>
       <c r="D84" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2125,12 +2379,15 @@
       <c r="B85" t="n">
         <v>1400.595397220547</v>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C85" t="n">
+        <v>1400.595397220547</v>
       </c>
       <c r="D85" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2145,12 +2402,15 @@
       <c r="B86" t="n">
         <v>981.0797891882346</v>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C86" t="n">
+        <v>981.0797891882346</v>
       </c>
       <c r="D86" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2165,12 +2425,15 @@
       <c r="B87" t="n">
         <v>659.7278906799004</v>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C87" t="n">
+        <v>659.7278906799004</v>
       </c>
       <c r="D87" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2185,12 +2448,15 @@
       <c r="B88" t="n">
         <v>341.7905209991168</v>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C88" t="n">
+        <v>341.7905209991168</v>
       </c>
       <c r="D88" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2199,18 +2465,21 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41097.fa</t>
+          <t>even_MAG-GUT41378.fa</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>805.3205019049803</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1394.731955036793</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1394.731955036793</v>
       </c>
       <c r="D89" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2219,18 +2488,21 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41378.fa</t>
+          <t>even_MAG-GUT41860.fa</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1394.731955036793</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>957.4265304112644</v>
+      </c>
+      <c r="C90" t="n">
+        <v>957.4265304112644</v>
       </c>
       <c r="D90" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2239,18 +2511,21 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41860.fa</t>
+          <t>even_MAG-GUT42780.fa</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>957.4265304112644</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1029.024779779994</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1029.024779779994</v>
       </c>
       <c r="D91" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2259,18 +2534,21 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42780.fa</t>
+          <t>even_MAG-GUT42852.fa</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1029.024779779994</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1329.461518288307</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1329.461518288307</v>
       </c>
       <c r="D92" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2279,18 +2557,21 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42852.fa</t>
+          <t>even_MAG-GUT42865.fa</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1329.461518288307</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1775.921012613374</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1775.921012613374</v>
       </c>
       <c r="D93" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2299,18 +2580,21 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42865.fa</t>
+          <t>even_MAG-GUT43110.fa</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1775.921012613374</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>929.9862379334506</v>
+      </c>
+      <c r="C94" t="n">
+        <v>929.9862379334506</v>
       </c>
       <c r="D94" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2319,18 +2603,21 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43110.fa</t>
+          <t>even_MAG-GUT43251.fa</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>929.9862379334506</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>762.9820196130806</v>
+      </c>
+      <c r="C95" t="n">
+        <v>762.9820196130806</v>
       </c>
       <c r="D95" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2339,18 +2626,21 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43251.fa</t>
+          <t>even_MAG-GUT43377.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>762.9820196130806</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1401.160360968806</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1401.160360968806</v>
       </c>
       <c r="D96" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2359,18 +2649,21 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43377.fa</t>
+          <t>even_MAG-GUT43378.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1401.160360968806</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1548.981433689763</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1548.981433689763</v>
       </c>
       <c r="D97" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2379,18 +2672,21 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43378.fa</t>
+          <t>even_MAG-GUT43648.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1548.981433689763</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>864.1917892694914</v>
+      </c>
+      <c r="C98" t="n">
+        <v>864.1917892694914</v>
       </c>
       <c r="D98" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2399,18 +2695,21 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43648.fa</t>
+          <t>even_MAG-GUT43957.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>864.1917892694914</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>960.2410285319743</v>
+      </c>
+      <c r="C99" t="n">
+        <v>960.2410285319743</v>
       </c>
       <c r="D99" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2419,18 +2718,21 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43957.fa</t>
+          <t>even_MAG-GUT44774.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>960.2410285319743</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>767.6678674260522</v>
+      </c>
+      <c r="C100" t="n">
+        <v>767.6678674260522</v>
       </c>
       <c r="D100" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2439,18 +2741,21 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44774.fa</t>
+          <t>even_MAG-GUT44944.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>767.6678674260522</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1073.391925325722</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1073.391925325722</v>
       </c>
       <c r="D101" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2459,18 +2764,21 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44944.fa</t>
+          <t>even_MAG-GUT45122.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1073.391925325722</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>978.279139031647</v>
+      </c>
+      <c r="C102" t="n">
+        <v>978.279139031647</v>
       </c>
       <c r="D102" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2479,18 +2787,21 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45122.fa</t>
+          <t>even_MAG-GUT45214.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>978.279139031647</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1101.134647483419</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1101.134647483419</v>
       </c>
       <c r="D103" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2499,18 +2810,21 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45214.fa</t>
+          <t>even_MAG-GUT45263.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1101.134647483419</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>662.4679227243164</v>
+      </c>
+      <c r="C104" t="n">
+        <v>662.4679227243164</v>
       </c>
       <c r="D104" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2519,18 +2833,21 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45263.fa</t>
+          <t>even_MAG-GUT45396.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>662.4679227243164</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>870.7715806977246</v>
+      </c>
+      <c r="C105" t="n">
+        <v>870.7715806977246</v>
       </c>
       <c r="D105" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2539,18 +2856,21 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45396.fa</t>
+          <t>even_MAG-GUT4552.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>870.7715806977246</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1305.530116752077</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1305.530116752077</v>
       </c>
       <c r="D106" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2559,18 +2879,21 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4552.fa</t>
+          <t>even_MAG-GUT45670.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1305.530116752077</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>646.5827518057947</v>
+      </c>
+      <c r="C107" t="n">
+        <v>646.5827518057947</v>
       </c>
       <c r="D107" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2579,18 +2902,21 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45670.fa</t>
+          <t>even_MAG-GUT4585.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>646.5827518057947</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1050.625344393733</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1050.625344393733</v>
       </c>
       <c r="D108" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2599,18 +2925,21 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4585.fa</t>
+          <t>even_MAG-GUT4600.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1050.625344393733</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1521.54002131229</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1521.54002131229</v>
       </c>
       <c r="D109" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2619,18 +2948,21 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4600.fa</t>
+          <t>even_MAG-GUT46167.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1521.54002131229</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1039.857228489649</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1039.857228489649</v>
       </c>
       <c r="D110" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2639,18 +2971,21 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46167.fa</t>
+          <t>even_MAG-GUT4634.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1039.857228489649</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1175.988218888527</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1175.988218888527</v>
       </c>
       <c r="D111" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2659,18 +2994,21 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4634.fa</t>
+          <t>even_MAG-GUT46378.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1175.988218888527</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>718.6487792838914</v>
+      </c>
+      <c r="C112" t="n">
+        <v>718.6487792838914</v>
       </c>
       <c r="D112" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2679,18 +3017,21 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46378.fa</t>
+          <t>even_MAG-GUT4651.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>718.6487792838914</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>946.5440223487619</v>
+      </c>
+      <c r="C113" t="n">
+        <v>946.5440223487619</v>
       </c>
       <c r="D113" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2699,18 +3040,21 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4651.fa</t>
+          <t>even_MAG-GUT47205.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>946.5440223487619</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>603.7918419150192</v>
+      </c>
+      <c r="C114" t="n">
+        <v>603.7918419150192</v>
       </c>
       <c r="D114" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2719,18 +3063,21 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47205.fa</t>
+          <t>even_MAG-GUT47800.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>603.7918419150192</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1049.700149233569</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1049.700149233569</v>
       </c>
       <c r="D115" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2739,18 +3086,21 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47800.fa</t>
+          <t>even_MAG-GUT48077.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1049.700149233569</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1417.693922959833</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1417.693922959833</v>
       </c>
       <c r="D116" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2759,18 +3109,21 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48077.fa</t>
+          <t>even_MAG-GUT48276.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1417.693922959833</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>884.0662723108576</v>
+      </c>
+      <c r="C117" t="n">
+        <v>884.0662723108576</v>
       </c>
       <c r="D117" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2779,18 +3132,21 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48276.fa</t>
+          <t>even_MAG-GUT4969.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>884.0662723108576</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>998.6066543374066</v>
+      </c>
+      <c r="C118" t="n">
+        <v>998.6066543374066</v>
       </c>
       <c r="D118" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2799,18 +3155,21 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4969.fa</t>
+          <t>even_MAG-GUT4979.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>998.6066543374066</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>899.0979338345314</v>
+      </c>
+      <c r="C119" t="n">
+        <v>899.0979338345314</v>
       </c>
       <c r="D119" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2819,18 +3178,21 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4979.fa</t>
+          <t>even_MAG-GUT50478.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>899.0979338345314</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>893.8617605154043</v>
+      </c>
+      <c r="C120" t="n">
+        <v>893.8617605154043</v>
       </c>
       <c r="D120" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2839,18 +3201,21 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50478.fa</t>
+          <t>even_MAG-GUT50483.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>893.8617605154043</v>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1652.984671648599</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1652.984671648599</v>
       </c>
       <c r="D121" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2859,18 +3224,21 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50483.fa</t>
+          <t>even_MAG-GUT50508.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1652.984671648599</v>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1200.465742302401</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1200.465742302401</v>
       </c>
       <c r="D122" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2879,18 +3247,21 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50508.fa</t>
+          <t>even_MAG-GUT51557.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1200.465742302401</v>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>991.0835857966556</v>
+      </c>
+      <c r="C123" t="n">
+        <v>991.0835857966556</v>
       </c>
       <c r="D123" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2899,18 +3270,21 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51557.fa</t>
+          <t>even_MAG-GUT51559.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>991.0835857966556</v>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>956.5259764262983</v>
+      </c>
+      <c r="C124" t="n">
+        <v>956.5259764262983</v>
       </c>
       <c r="D124" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2919,18 +3293,21 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51559.fa</t>
+          <t>even_MAG-GUT5249.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>956.5259764262983</v>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>705.2237874307668</v>
+      </c>
+      <c r="C125" t="n">
+        <v>705.2237874307668</v>
       </c>
       <c r="D125" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2939,18 +3316,21 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5249.fa</t>
+          <t>even_MAG-GUT52992.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>705.2237874307668</v>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>965.5254170411329</v>
+      </c>
+      <c r="C126" t="n">
+        <v>965.5254170411329</v>
       </c>
       <c r="D126" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2959,18 +3339,21 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT52992.fa</t>
+          <t>even_MAG-GUT53689.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>965.5254170411329</v>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1322.795945489536</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1322.795945489536</v>
       </c>
       <c r="D127" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2979,18 +3362,21 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT53689.fa</t>
+          <t>even_MAG-GUT5375.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1322.795945489536</v>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1011.023694206083</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1011.023694206083</v>
       </c>
       <c r="D128" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -2999,18 +3385,21 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5375.fa</t>
+          <t>even_MAG-GUT54574.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1011.023694206083</v>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1277.577344277041</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1277.577344277041</v>
       </c>
       <c r="D129" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3019,18 +3408,21 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54574.fa</t>
+          <t>even_MAG-GUT54831.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1277.577344277041</v>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1264.228841360826</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1264.228841360826</v>
       </c>
       <c r="D130" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3039,18 +3431,21 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT54831.fa</t>
+          <t>even_MAG-GUT55210.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1264.228841360826</v>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>757.2093944755663</v>
+      </c>
+      <c r="C131" t="n">
+        <v>757.2093944755663</v>
       </c>
       <c r="D131" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3059,18 +3454,21 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55210.fa</t>
+          <t>even_MAG-GUT55743.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>757.2093944755663</v>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1340.044919490515</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1340.044919490515</v>
       </c>
       <c r="D132" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3079,18 +3477,21 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT55743.fa</t>
+          <t>even_MAG-GUT56345.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1340.044919490515</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1036.362725598793</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1036.362725598793</v>
       </c>
       <c r="D133" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3099,18 +3500,21 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56345.fa</t>
+          <t>even_MAG-GUT56417.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1036.362725598793</v>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1041.120580331022</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1041.120580331022</v>
       </c>
       <c r="D134" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3119,18 +3523,21 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56417.fa</t>
+          <t>even_MAG-GUT57158.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1041.120580331022</v>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>705.1343279567805</v>
+      </c>
+      <c r="C135" t="n">
+        <v>705.1343279567805</v>
       </c>
       <c r="D135" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3139,18 +3546,21 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57158.fa</t>
+          <t>even_MAG-GUT57729.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>705.1343279567805</v>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1334.345824354847</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1334.345824354847</v>
       </c>
       <c r="D136" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3159,18 +3569,21 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57729.fa</t>
+          <t>even_MAG-GUT5848.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1334.345824354847</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1209.17400889571</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1209.17400889571</v>
       </c>
       <c r="D137" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3179,18 +3592,21 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5848.fa</t>
+          <t>even_MAG-GUT58938.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1209.17400889571</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1107.867415240441</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1107.867415240441</v>
       </c>
       <c r="D138" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3199,18 +3615,21 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58938.fa</t>
+          <t>even_MAG-GUT59149.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1107.867415240441</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1505.304238070146</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1505.304238070146</v>
       </c>
       <c r="D139" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3219,18 +3638,21 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59149.fa</t>
+          <t>even_MAG-GUT593.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1505.304238070146</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>995.2734433534517</v>
+      </c>
+      <c r="C140" t="n">
+        <v>995.2734433534517</v>
       </c>
       <c r="D140" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3239,18 +3661,21 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT593.fa</t>
+          <t>even_MAG-GUT59579.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>995.2734433534517</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>541.8809379005679</v>
+      </c>
+      <c r="C141" t="n">
+        <v>541.8809379005679</v>
       </c>
       <c r="D141" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3259,18 +3684,21 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59579.fa</t>
+          <t>even_MAG-GUT59599.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>541.8809379005679</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>796.1468992350622</v>
+      </c>
+      <c r="C142" t="n">
+        <v>796.1468992350622</v>
       </c>
       <c r="D142" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3279,18 +3707,21 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59599.fa</t>
+          <t>even_MAG-GUT62658.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>796.1468992350622</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1017.649370910662</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1017.649370910662</v>
       </c>
       <c r="D143" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3299,18 +3730,21 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62658.fa</t>
+          <t>even_MAG-GUT63164.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1017.649370910662</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>644.4593654220757</v>
+      </c>
+      <c r="C144" t="n">
+        <v>644.4593654220757</v>
       </c>
       <c r="D144" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3319,18 +3753,21 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63164.fa</t>
+          <t>even_MAG-GUT63198.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>644.4593654220757</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>240.4430005381292</v>
+      </c>
+      <c r="C145" t="n">
+        <v>240.4430005381292</v>
       </c>
       <c r="D145" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3339,18 +3776,21 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63198.fa</t>
+          <t>even_MAG-GUT63214.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>240.4430005381292</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>229.792131569146</v>
+      </c>
+      <c r="C146" t="n">
+        <v>229.792131569146</v>
       </c>
       <c r="D146" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3359,18 +3799,21 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63214.fa</t>
+          <t>even_MAG-GUT63219.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>229.792131569146</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>160.3636662816432</v>
+      </c>
+      <c r="C147" t="n">
+        <v>160.3636662816432</v>
       </c>
       <c r="D147" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3379,18 +3822,21 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63219.fa</t>
+          <t>even_MAG-GUT63286.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>160.3636662816432</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>202.5770873359107</v>
+      </c>
+      <c r="C148" t="n">
+        <v>202.5770873359107</v>
       </c>
       <c r="D148" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3399,18 +3845,21 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63286.fa</t>
+          <t>even_MAG-GUT63373.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>202.5770873359107</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>187.8272754387994</v>
+      </c>
+      <c r="C149" t="n">
+        <v>187.8272754387994</v>
       </c>
       <c r="D149" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3419,18 +3868,21 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63373.fa</t>
+          <t>even_MAG-GUT63496.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>187.8272754387994</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>210.0657832764681</v>
+      </c>
+      <c r="C150" t="n">
+        <v>210.0657832764681</v>
       </c>
       <c r="D150" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3439,18 +3891,21 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63496.fa</t>
+          <t>even_MAG-GUT63586.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>210.0657832764681</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>213.5381511697819</v>
+      </c>
+      <c r="C151" t="n">
+        <v>213.5381511697819</v>
       </c>
       <c r="D151" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3459,18 +3914,21 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63586.fa</t>
+          <t>even_MAG-GUT63602.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>213.5381511697819</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>206.13603754839</v>
+      </c>
+      <c r="C152" t="n">
+        <v>206.13603754839</v>
       </c>
       <c r="D152" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3479,18 +3937,21 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63602.fa</t>
+          <t>even_MAG-GUT6384.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>206.13603754839</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>665.7933691006003</v>
+      </c>
+      <c r="C153" t="n">
+        <v>665.7933691006003</v>
       </c>
       <c r="D153" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3499,18 +3960,21 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6384.fa</t>
+          <t>even_MAG-GUT6445.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>665.7933691006003</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>669.1000958114394</v>
+      </c>
+      <c r="C154" t="n">
+        <v>669.1000958114394</v>
       </c>
       <c r="D154" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3519,18 +3983,21 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6445.fa</t>
+          <t>even_MAG-GUT6489.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>669.1000958114394</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>819.4559894832357</v>
+      </c>
+      <c r="C155" t="n">
+        <v>819.4559894832357</v>
       </c>
       <c r="D155" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3539,18 +4006,21 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6489.fa</t>
+          <t>even_MAG-GUT65795.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>819.4559894832357</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>341.7905209991168</v>
+      </c>
+      <c r="C156" t="n">
+        <v>341.7905209991168</v>
       </c>
       <c r="D156" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3559,18 +4029,21 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65795.fa</t>
+          <t>even_MAG-GUT66097.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>341.7905209991168</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1393.403126166745</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1393.403126166745</v>
       </c>
       <c r="D157" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3579,18 +4052,21 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66097.fa</t>
+          <t>even_MAG-GUT66701.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1393.403126166745</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>626.7049028262707</v>
+      </c>
+      <c r="C158" t="n">
+        <v>626.7049028262707</v>
       </c>
       <c r="D158" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3599,18 +4075,21 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66701.fa</t>
+          <t>even_MAG-GUT67224.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>626.7049028262707</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1223.067921357313</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1223.067921357313</v>
       </c>
       <c r="D159" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3619,18 +4098,21 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67224.fa</t>
+          <t>even_MAG-GUT68072.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1223.067921357313</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>650.900279762069</v>
+      </c>
+      <c r="C160" t="n">
+        <v>650.900279762069</v>
       </c>
       <c r="D160" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3639,18 +4121,21 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68072.fa</t>
+          <t>even_MAG-GUT68311.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>650.900279762069</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>843.6483068717321</v>
+      </c>
+      <c r="C161" t="n">
+        <v>843.6483068717321</v>
       </c>
       <c r="D161" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3659,18 +4144,21 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68311.fa</t>
+          <t>even_MAG-GUT68785.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>843.6483068717321</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>1255.067816048423</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1255.067816048423</v>
       </c>
       <c r="D162" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3679,18 +4167,21 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68785.fa</t>
+          <t>even_MAG-GUT69465.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1255.067816048423</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+        <v>802.6517306653518</v>
+      </c>
+      <c r="C163" t="n">
+        <v>802.6517306653518</v>
       </c>
       <c r="D163" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3705,12 +4196,15 @@
       <c r="B164" t="n">
         <v>585.9217212748904</v>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C164" t="n">
+        <v>585.9217212748904</v>
       </c>
       <c r="D164" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3725,12 +4219,15 @@
       <c r="B165" t="n">
         <v>484.3945693989643</v>
       </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C165" t="n">
+        <v>484.3945693989643</v>
       </c>
       <c r="D165" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3745,12 +4242,15 @@
       <c r="B166" t="n">
         <v>734.8910762789531</v>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C166" t="n">
+        <v>734.8910762789531</v>
       </c>
       <c r="D166" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3765,12 +4265,15 @@
       <c r="B167" t="n">
         <v>1192.381225124557</v>
       </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C167" t="n">
+        <v>1192.381225124557</v>
       </c>
       <c r="D167" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3785,12 +4288,15 @@
       <c r="B168" t="n">
         <v>282.8221575982066</v>
       </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C168" t="n">
+        <v>282.8221575982066</v>
       </c>
       <c r="D168" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3805,12 +4311,15 @@
       <c r="B169" t="n">
         <v>588.052856816623</v>
       </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C169" t="n">
+        <v>588.052856816623</v>
       </c>
       <c r="D169" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3825,12 +4334,15 @@
       <c r="B170" t="n">
         <v>819.5509024042865</v>
       </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C170" t="n">
+        <v>819.5509024042865</v>
       </c>
       <c r="D170" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3845,12 +4357,15 @@
       <c r="B171" t="n">
         <v>1025.361728726997</v>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C171" t="n">
+        <v>1025.361728726997</v>
       </c>
       <c r="D171" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3865,12 +4380,15 @@
       <c r="B172" t="n">
         <v>696.3647989233734</v>
       </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C172" t="n">
+        <v>696.3647989233734</v>
       </c>
       <c r="D172" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3885,12 +4403,15 @@
       <c r="B173" t="n">
         <v>817.8337192190766</v>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C173" t="n">
+        <v>817.8337192190766</v>
       </c>
       <c r="D173" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3905,12 +4426,15 @@
       <c r="B174" t="n">
         <v>1542.330063643076</v>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C174" t="n">
+        <v>1542.330063643076</v>
       </c>
       <c r="D174" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3925,12 +4449,15 @@
       <c r="B175" t="n">
         <v>816.7879119964066</v>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C175" t="n">
+        <v>816.7879119964066</v>
       </c>
       <c r="D175" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3945,12 +4472,15 @@
       <c r="B176" t="n">
         <v>909.2714463173031</v>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C176" t="n">
+        <v>909.2714463173031</v>
       </c>
       <c r="D176" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3965,12 +4495,15 @@
       <c r="B177" t="n">
         <v>1005.353519782279</v>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C177" t="n">
+        <v>1005.353519782279</v>
       </c>
       <c r="D177" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -3985,12 +4518,15 @@
       <c r="B178" t="n">
         <v>816.5936468080999</v>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C178" t="n">
+        <v>816.5936468080999</v>
       </c>
       <c r="D178" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4005,12 +4541,15 @@
       <c r="B179" t="n">
         <v>1124.257560619152</v>
       </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C179" t="n">
+        <v>1124.257560619152</v>
       </c>
       <c r="D179" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4025,12 +4564,15 @@
       <c r="B180" t="n">
         <v>1382.875903485075</v>
       </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C180" t="n">
+        <v>1382.875903485075</v>
       </c>
       <c r="D180" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4045,12 +4587,15 @@
       <c r="B181" t="n">
         <v>678.8979574815105</v>
       </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C181" t="n">
+        <v>678.8979574815105</v>
       </c>
       <c r="D181" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4065,12 +4610,15 @@
       <c r="B182" t="n">
         <v>621.8474989721299</v>
       </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C182" t="n">
+        <v>621.8474989721299</v>
       </c>
       <c r="D182" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4085,12 +4633,15 @@
       <c r="B183" t="n">
         <v>978.2832674283861</v>
       </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C183" t="n">
+        <v>978.2832674283861</v>
       </c>
       <c r="D183" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4105,12 +4656,15 @@
       <c r="B184" t="n">
         <v>819.9406178053766</v>
       </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C184" t="n">
+        <v>819.9406178053766</v>
       </c>
       <c r="D184" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4125,12 +4679,15 @@
       <c r="B185" t="n">
         <v>903.2933501435682</v>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C185" t="n">
+        <v>903.2933501435682</v>
       </c>
       <c r="D185" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4145,12 +4702,15 @@
       <c r="B186" t="n">
         <v>853.80684288159</v>
       </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C186" t="n">
+        <v>853.80684288159</v>
       </c>
       <c r="D186" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4165,12 +4725,15 @@
       <c r="B187" t="n">
         <v>717.7178046603601</v>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C187" t="n">
+        <v>717.7178046603601</v>
       </c>
       <c r="D187" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4185,12 +4748,15 @@
       <c r="B188" t="n">
         <v>573.6697169370589</v>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C188" t="n">
+        <v>573.6697169370589</v>
       </c>
       <c r="D188" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4205,12 +4771,15 @@
       <c r="B189" t="n">
         <v>903.5317637222165</v>
       </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C189" t="n">
+        <v>903.5317637222165</v>
       </c>
       <c r="D189" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4225,12 +4794,15 @@
       <c r="B190" t="n">
         <v>589.5525904715898</v>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C190" t="n">
+        <v>589.5525904715898</v>
       </c>
       <c r="D190" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4245,12 +4817,15 @@
       <c r="B191" t="n">
         <v>745.5231815568388</v>
       </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C191" t="n">
+        <v>745.5231815568388</v>
       </c>
       <c r="D191" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4265,12 +4840,15 @@
       <c r="B192" t="n">
         <v>769.7626311109059</v>
       </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C192" t="n">
+        <v>769.7626311109059</v>
       </c>
       <c r="D192" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4285,12 +4863,15 @@
       <c r="B193" t="n">
         <v>879.2910046118834</v>
       </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C193" t="n">
+        <v>879.2910046118834</v>
       </c>
       <c r="D193" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4305,12 +4886,15 @@
       <c r="B194" t="n">
         <v>651.9899484980203</v>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C194" t="n">
+        <v>651.9899484980203</v>
       </c>
       <c r="D194" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4325,12 +4909,15 @@
       <c r="B195" t="n">
         <v>962.8445073312932</v>
       </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C195" t="n">
+        <v>962.8445073312932</v>
       </c>
       <c r="D195" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4345,12 +4932,15 @@
       <c r="B196" t="n">
         <v>626.5414806350823</v>
       </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C196" t="n">
+        <v>626.5414806350823</v>
       </c>
       <c r="D196" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4365,12 +4955,15 @@
       <c r="B197" t="n">
         <v>932.379717464057</v>
       </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C197" t="n">
+        <v>932.379717464057</v>
       </c>
       <c r="D197" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4385,12 +4978,15 @@
       <c r="B198" t="n">
         <v>587.1853064334866</v>
       </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C198" t="n">
+        <v>587.1853064334866</v>
       </c>
       <c r="D198" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4405,12 +5001,15 @@
       <c r="B199" t="n">
         <v>776.1646347205692</v>
       </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C199" t="n">
+        <v>776.1646347205692</v>
       </c>
       <c r="D199" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4425,12 +5024,15 @@
       <c r="B200" t="n">
         <v>843.2143494207189</v>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C200" t="n">
+        <v>843.2143494207189</v>
       </c>
       <c r="D200" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4445,12 +5047,15 @@
       <c r="B201" t="n">
         <v>816.7285878641676</v>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C201" t="n">
+        <v>816.7285878641676</v>
       </c>
       <c r="D201" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
@@ -4465,12 +5070,245 @@
       <c r="B202" t="n">
         <v>1292.286070977325</v>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>c__Bacteroidia</t>
-        </is>
+      <c r="C202" t="n">
+        <v>1292.286070977325</v>
       </c>
       <c r="D202" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89050.fa</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="C203" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89164.fa</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="C204" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89816.fa</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="C205" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT89851.fa</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="C206" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90143.fa</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="C207" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90408.fa</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="C208" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90615.fa</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="C209" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90683.fa</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="C210" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT90996.fa</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="C211" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT91012.fa</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="C212" t="n">
+        <v>166.8470211020652</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>c__Bacteroidia</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
         <is>
           <t>c__Bacteroidia</t>
         </is>
